--- a/src/main/resources/Sample - Table Layout.xlsx
+++ b/src/main/resources/Sample - Table Layout.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicole_tsou\Dropbox\POST\ParseTeradata2TableLayout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicole_tsou\Dropbox\POST\JavaTools\POST-ParseTD2MSSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C84532-EE45-4614-B562-CE770C939133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5290187D-508D-44D9-A193-5ED08689CD14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
+    <sheet name="ODS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>系統名稱：</t>
   </si>
@@ -167,6 +168,35 @@
   </si>
   <si>
     <t>檔案</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISNP.DWMWY0.TXT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱(中文)</t>
+  </si>
+  <si>
+    <t>欄位起</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位迄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>是否含有中文</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -242,8 +272,28 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -308,37 +364,58 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF505050"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -358,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,34 +469,58 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +881,7 @@
       <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
@@ -788,7 +889,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="3"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -798,9 +899,9 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -811,7 +912,7 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
@@ -827,135 +928,223 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="15" t="s">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="20"/>
+      <c r="U4" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB8D00-19D6-4904-B0C7-1172AC10F08F}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="16"/>
+    <col min="9" max="9" width="25.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>